--- a/Exercicios/U5C1Tarefas/datalog2.xlsx
+++ b/Exercicios/U5C1Tarefas/datalog2.xlsx
@@ -876,6 +876,14 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
+        <c:dLbls>
+          <c:showBubbleSize val="0"/>
+          <c:showCatName val="0"/>
+          <c:showLegendKey val="0"/>
+          <c:showPercent val="0"/>
+          <c:showSerName val="0"/>
+          <c:showVal val="0"/>
+        </c:dLbls>
         <c:marker val="0"/>
         <c:smooth val="0"/>
         <c:axId val="2140841461"/>
@@ -1005,7 +1013,12 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:x val="-0.001240"/>
+          <c:y val="0.000000"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr bwMode="auto">
         <a:prstGeom prst="rect">
@@ -1680,15 +1693,15 @@
   <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>85723</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>60959</xdr:rowOff>
+      <xdr:rowOff>60958</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>419099</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>129539</xdr:rowOff>
+      <xdr:rowOff>129538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -3458,7 +3471,7 @@
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000008" footer="0.31496062000000008"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157500000008" bottom="0.78740157500000008" header="0.31496062000000014" footer="0.31496062000000014"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
